--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,252 +436,1437 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>source_document</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>kappa_flc</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>lambda_flc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>kappa_lambda_ratio</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date_of_lab</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>evidence_sentences</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>source_document</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>64.9 mg/dL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>56.21</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-03-XX</t>
+          <t>115.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-12-27_00:00:00.000_Progress_Notes_91111</t>
+          <t>Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "56.21",
+  "lambda_flc": "3.08",
+  "kappa_lambda_ratio": "115.57",
+  "date_of_lab": "2024-02-22",
+  "evidence_sentences": [
+    "Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
+  ],
+  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>203.94 mg/dL</t>
+          <t>2024-03-05_00:00:00.000_IMTX_Conference_Note_91479</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/dL</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&gt;1456.71</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>XXXX-XX-XX</t>
+          <t>115.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+          <t>On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "16.18",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "115.57",
+  "date_of_lab": "2024-02-22",
+  "evidence_sentences": [
+    "On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57."
+  ],
+  "source_document": "2024-03-05_00:00:00.000_IMTX_Conference_Note_91479"
+}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16.18 mg/dL</t>
+          <t>2024-02-22_00:00:00.000_Progress_Notes_91459</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/dL</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&gt;115.57</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>1733.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57.</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-03-05_00:00:00.000_IMTX_Conference_Note_91479</t>
+          <t>MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "242",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1733.29",
+  "date_of_lab": "2024-01-16",
+  "evidence_sentences": [
+    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
+  ],
+  "source_document": "2024-02-22_00:00:00.000_Progress_Notes_91459"
+}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>56.21 mg/dL</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;3.08 mg/dL</t>
+          <t>203.94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&gt;115.57</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>1456.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)</t>
+          <t>2024-02-XX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL
+Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL
+Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "203.94",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1456.71",
+  "date_of_lab": "2024-02-XX",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
+  ],
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
+}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;9.81 mg/dL</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;1.91 mg/dL</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unable to calculate</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>1456.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Latest Reference Range &amp; Units 04/08/24 07:15   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike  2.6 IgG kappa, Kappa free light chain TSTQ.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "204",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1456.71",
+  "date_of_lab": "2024-01-24",
+  "evidence_sentences": [
+    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike  2.6 IgG kappa, Kappa free light chain TSTQ."
+  ],
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
+}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>129.54 mg/dL</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15 mg/dL</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&gt;914.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
+          <t>Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL
+Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL
+Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "0.08",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "0.57",
+  "date_of_lab": "2024-06-13",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
+  ],
+  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
+}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.08 mg/dL</t>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/dL</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&gt;0.57</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XXXX-XX-XX</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Result Value Ref Range Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+          <t>His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.45",
+  "lambda_flc": "0.73",
+  "kappa_lambda_ratio": "1.99",
+  "date_of_lab": "2021-12-01",
+  "evidence_sentences": [
+    "His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2019-03-XX</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "64.9",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2019-03-XX",
+  "evidence_sentences": [
+    "At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>137.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2020-10-XX</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "24.67",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": "137.06",
+  "date_of_lab": "2020-10-XX",
+  "evidence_sentences": [
+    "In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>161.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-12-XX</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "30.75",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": "161.84",
+  "date_of_lab": "2020-12-XX",
+  "evidence_sentences": [
+    "In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021-06-XX</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "20.78",
+  "lambda_flc": "0.24",
+  "kappa_lambda_ratio": "86.58",
+  "date_of_lab": "2021-06-XX",
+  "evidence_sentences": [
+    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "4.48",
+  "lambda_flc": "0.7",
+  "kappa_lambda_ratio": "6.31",
+  "date_of_lab": "2021-09-01",
+  "evidence_sentences": [
+    "On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2019-03-XX</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "64.9",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2019-03-XX",
+  "evidence_sentences": [
+    "Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma."
+  ],
+  "source_document": "2021-12-23_00:00:00.000_Progress_Notes_91107"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.24",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": "1.72",
+  "date_of_lab": "2021-12-15",
+  "evidence_sentences": [
+    "Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72."
+  ],
+  "source_document": "2021-12-23_00:00:00.000_Progress_Notes_91107"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-12-27_00:00:00.000_Progress_Notes_91111</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-06-XX</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "64.9",
+  "lambda_flc": "0.24",
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2021-06-XX",
+  "evidence_sentences": [
+    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
+  ],
+  "source_document": "2021-12-27_00:00:00.000_Progress_Notes_91111"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>129.54</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>914.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "129.54",
+  "lambda_flc": "15",
+  "kappa_lambda_ratio": "914.29",
+  "date_of_lab": "2023-11-28",
+  "evidence_sentences": [
+    "11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29."
+  ],
+  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>242.66</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1733.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "242.66",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1733.29",
+  "date_of_lab": "2024-01-16",
+  "evidence_sentences": [
+    "1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29."
+  ],
+  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>190.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2019-03-XX</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "65",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190.88",
+  "date_of_lab": "2019-03-XX",
+  "evidence_sentences": [
+    "Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2019-10-XX</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.34",
+  "lambda_flc": "0.92",
+  "kappa_lambda_ratio": "1.46",
+  "date_of_lab": "2019-10-XX",
+  "evidence_sentences": [
+    "Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2020-04-XX</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 4/15/2020 showed an increased M spike at 0.6 g/dL as well as increased light chains; KFLC 4.14 mg/dL, LFLC 1.24 mg/dL, K/L 3.34.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "4.14",
+  "lambda_flc": "1.24",
+  "kappa_lambda_ratio": "3.34",
+  "date_of_lab": "2020-04-XX",
+  "evidence_sentences": [
+    "Myeloma markers on 4/15/2020 showed an increased M spike at 0.6 g/dL as well as increased light chains; KFLC 4.14 mg/dL, LFLC 1.24 mg/dL, K/L 3.34."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-06-XX</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 6/3/2020; M spike 0.9 g/dL, KFLC 5.00 mg/dL, LFLC 1.21 mg/dL, K/L 4.13.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "5.00",
+  "lambda_flc": "1.21",
+  "kappa_lambda_ratio": "4.13",
+  "date_of_lab": "2020-06-XX",
+  "evidence_sentences": [
+    "Myeloma markers on 6/3/2020; M spike 0.9 g/dL, KFLC 5.00 mg/dL, LFLC 1.21 mg/dL, K/L 4.13."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022-06-XX</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 6/29/2022 included M spike 0.7 g/dL, KFLC 8.36 mg/dL, LFLC 1.50 mg/dL, K/L 5.57.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "8.36",
+  "lambda_flc": "1.50",
+  "kappa_lambda_ratio": "5.57",
+  "date_of_lab": "2022-06-XX",
+  "evidence_sentences": [
+    "Myeloma markers on 6/29/2022 included M spike 0.7 g/dL, KFLC 8.36 mg/dL, LFLC 1.50 mg/dL, K/L 5.57."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>34.88</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022-11-XX</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>By 11/2/2022 M spike was 2.0 g/dL, KFLC 34.88 mg/dL, LFLC 0.83 mg/dL, K/L 42.02.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "34.88",
+  "lambda_flc": "0.83",
+  "kappa_lambda_ratio": "42.02",
+  "date_of_lab": "2022-11-XX",
+  "evidence_sentences": [
+    "By 11/2/2022 M spike was 2.0 g/dL, KFLC 34.88 mg/dL, LFLC 0.83 mg/dL, K/L 42.02."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-11-XX</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>After the first cycle his M spike dropped to 1.5 g/dL on 11/29/2022 and he also noticed improvements in his light chains, KFLC 27.56 mg/dL, LFLC 0.76, K/L 36.26.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "27.56",
+  "lambda_flc": "0.76",
+  "kappa_lambda_ratio": "36.26",
+  "date_of_lab": "2022-11-XX",
+  "evidence_sentences": [
+    "After the first cycle his M spike dropped to 1.5 g/dL on 11/29/2022 and he also noticed improvements in his light chains, KFLC 27.56 mg/dL, LFLC 0.76, K/L 36.26."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>201.45</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-06-XX</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "201.45",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1",
+  "date_of_lab": "2023-06-XX",
+  "evidence_sentences": [
+    "Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-01-10_00:00:00.000_Progress_Notes_91135</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>His kappa was 1.24, lambda 0.72, kappa lambda 1.72.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.24",
+  "lambda_flc": "0.72",
+  "kappa_lambda_ratio": "1.72",
+  "date_of_lab": "2022-01-10",
+  "evidence_sentences": [
+    "His kappa was 1.24, lambda 0.72, kappa lambda 1.72."
+  ],
+  "source_document": "2022-01-10_00:00:00.000_Progress_Notes_91135"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-02-22_00:00:00.000_Progress_Notes_91240</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022-XX-XX</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190
+baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "65",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2022-XX-XX",
+  "evidence_sentences": [
+    "Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190",
+    "baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190."
+  ],
+  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91240"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-12-01_00:00:00.000_Progress_Notes_91285</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>129.5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "129.5",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": null,
+  "date_of_lab": "2023-11-28",
+  "evidence_sentences": [
+    "Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL."
+  ],
+  "source_document": "2023-12-01_00:00:00.000_Progress_Notes_91285"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-03-11_00:00:00.000_H&amp;P_91495</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>42.66</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1733.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "42.66",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": "1733.29",
+  "date_of_lab": "2024-01-16",
+  "evidence_sentences": [
+    "Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)"
+  ],
+  "source_document": "2024-03-11_00:00:00.000_H&amp;P_91495"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-14_00:00:00.000_Progress_Notes_91512</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-XX-XX</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "16.18",
+  "lambda_flc": null,
+  "kappa_lambda_ratio": null,
+  "date_of_lab": "2024-XX-XX",
+  "evidence_sentences": [
+    "Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18"
+  ],
+  "source_document": "2024-03-14_00:00:00.000_Progress_Notes_91512"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-02-22_00:00:00.000_Progress_Notes_91238</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2022-12-XX</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SPEP 12/20 - IgG 537, IgA 64, IgM 13, M spike 0.1, KFLC 1.24, K/L 1.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.24",
+  "lambda_flc": "",
+  "kappa_lambda_ratio": "1.72",
+  "date_of_lab": "2022-12-XX",
+  "evidence_sentences": [
+    "SPEP 12/20 - IgG 537, IgA 64, IgM 13, M spike 0.1, KFLC 1.24, K/L 1.72"
+  ],
+  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91238"
+}</t>
         </is>
       </c>
     </row>
